--- a/similarities/split_global/harmonic_similarity_timestamps_85.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_85.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,418 +484,432 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_16</t>
+          <t>schubert-winterreise_61</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_214</t>
+          <t>jaah_77</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['D:7', 'G:maj', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['G:7', 'C', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:01:08.340000', '0:01:24.380000')]</t>
+          <t>('0:01:08.980000', '0:01:20.440000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:03.260000', '0:00:20.100000')]</t>
+          <t>('0:00:18.870000', '0:00:25.690000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-16#t=68.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=68.98</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-214#t=3.26']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-77#t=18.87</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_165</t>
+          <t>isophonics_49</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
+          <t>isophonics_201</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:(3,5,b7,b9)', 'A#:min']]</t>
+          <t>['G', 'A:min', 'G/3']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:(3,5,b7,b9)', 'E:min']]</t>
+          <t>['Ab:maj', 'Bb:min', 'Ab:maj']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:56.760000', '0:01:02.320000')]</t>
+          <t>('0:00:20.940758', '0:00:24.911369')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:01:30.740000', '0:01:49.700000')]</t>
+          <t>('0:00:09.241000', '0:00:14.362000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-165#t=56.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-49#t=20.940758</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=90.74']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-201#t=9.241</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
+          <t>schubert-winterreise_131</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_294</t>
+          <t>schubert-winterreise_11</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G/3']]</t>
+          <t>['C:maj', 'F:maj', 'C:maj/E']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:52.740000', '0:01:00.860000')]</t>
+          <t>('0:01:01.320000', '0:01:03.700000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:22.020589', '0:00:24.598004')]</t>
+          <t>('0:01:09.860000', '0:01:13.740000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=52.74']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-131#t=61.32</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-294#t=22.020589']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-11#t=69.86</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_49</t>
+          <t>schubert-winterreise_53</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_201</t>
+          <t>schubert-winterreise_27</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['G', 'A:min', 'G/3']]</t>
+          <t>['E:maj', 'B:7', 'E:maj']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['Ab:maj', 'Bb:min', 'Ab:maj']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:20.940758', '0:00:24.911369')]</t>
+          <t>('0:00:00.260000', '0:00:07.820000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:09.241000', '0:00:14.362000')]</t>
+          <t>('0:01:04.300000', '0:01:05.720000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-49#t=20.940758']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=0.26</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-201#t=9.241']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-27#t=64.3</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_60</t>
+          <t>schubert-winterreise_211</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
+          <t>schubert-winterreise_40</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:maj/G', 'G:min'], ['G:min', 'D:7/G', 'G:min']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:maj', 'A:min'], ['A:min/E', 'E:7', 'A:min']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:06.300000', '0:00:14.360000'), ('0:00:17.040000', '0:00:24.520000')]</t>
+          <t>('0:00:01', '0:00:05.360000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:13.500000', '0:00:21.900000'), ('0:01:23.100000', '0:01:30.020000')]</t>
+          <t>('0:01:28.760000', '0:01:38.300000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-60#t=6.3', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-60#t=17.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-211#t=1.0</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-177#t=13.5', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-177#t=83.1']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=88.76</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_103</t>
+          <t>jaah_64</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_276</t>
+          <t>jaah_28</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj', 'G:maj', 'C:maj']]</t>
+          <t>['D:min7', 'G:7', 'C:maj6']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D', 'G']]</t>
+          <t>['Eb:min7', 'Ab:7', 'Db:maj6']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:11.320000', '0:00:14.100000')]</t>
+          <t>('0:00:20.730000', '0:00:24.030000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:07.834297', '0:00:15.380782')]</t>
+          <t>('0:00:03.200000', '0:00:06.960000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-103#t=11.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-64#t=20.73</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-276#t=7.834297']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-28#t=3.2</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>schubert-winterreise_96</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_2</t>
+          <t>schubert-winterreise_61</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['F:maj/A', 'C:7', 'F:maj']]</t>
+          <t>['F:maj', 'F:7', 'A#:maj']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj']]</t>
+          <t>['G:maj', 'G:7/F', 'C:maj/E']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:16.800000', '0:00:19.040000')]</t>
+          <t>('0:00:17.840000', '0:00:26.980000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:20.560000', '0:00:23.940000')]</t>
+          <t>('0:00:54.760000', '0:01:02.820000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-142#t=16.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-96#t=17.84</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-2#t=20.56']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=54.76</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_7</t>
+          <t>isophonics_70</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_87</t>
+          <t>jaah_60</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
+          <t>['A:min7', 'D:7', 'A:min7', 'D:7']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:(3,5,b7,b9)/A#', 'A#:min']]</t>
+          <t>['E:min7', 'A:7', 'E:min7', 'A:7']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:01:01.880000', '0:01:07.800000')]</t>
+          <t>('0:00:21.711000', '0:00:25.918000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:25', '0:00:35.520000')]</t>
+          <t>('0:00:16.520000', '0:00:20.680000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-7#t=61.88']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-70#t=21.711</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-87#t=25.0']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-60#t=16.52</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>schubert-winterreise_111</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_46</t>
+          <t>schubert-winterreise_179</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>['D:min/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:16.020000', '0:00:22.500000')]</t>
+          <t>('0:00:40.380000', '0:00:42.280000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:28.921995', '0:00:33.101587')]</t>
+          <t>('0:02:11.200000', '0:02:16.340000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=16.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=40.38</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-46#t=28.921995']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-179#t=131.2</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -904,290 +918,296 @@
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_290</t>
+          <t>schubert-winterreise_47</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
+          <t>schubert-winterreise_74</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'C']]</t>
+          <t>['D:min', 'A:7/E', 'D:min']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj', 'G:maj']]</t>
+          <t>['F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:08.482392', '0:00:11.666439')]</t>
+          <t>('0:00:00.360000', '0:00:05.600000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:43.260000', '0:00:45.660000')]</t>
+          <t>('0:00:09.780000', '0:00:14.360000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-290#t=8.482392']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-47#t=0.36</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-173#t=43.26']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=9.78</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
+          <t>schubert-winterreise_174</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_157</t>
+          <t>schubert-winterreise_184</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['A#:7', 'D#:maj/A#', 'D#:min/A#', 'A#:maj']]</t>
+          <t>['A#:min', 'F:(3,5,b7,b9)/A#', 'A#:min']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['E:7/3', 'A', 'A:min/b3', 'E']]</t>
+          <t>['G:min/D', 'D:(3,5,b7,b9)', 'G:min']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:03.080000', '0:00:11.700000')]</t>
+          <t>('0:00:32.480000', '0:00:45.820000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:21.908049', '0:00:27.840748')]</t>
+          <t>('0:00:55.260000', '0:01:01')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-168#t=3.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-174#t=32.48</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-157#t=21.908049']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-184#t=55.26</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_34</t>
+          <t>schubert-winterreise_66</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
+          <t>schubert-winterreise_178</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['C', 'C/G', 'G:7', 'C']]</t>
+          <t>['D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
+          <t>['F:maj', 'C:7/E', 'F:maj', 'C:7/E', 'F:maj']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:04:02.220000', '0:04:09.260000')]</t>
+          <t>('0:00:41.080000', '0:00:45.380000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:18.920000', '0:00:21.940000')]</t>
+          <t>('0:00:39.020000', '0:00:47.120000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=242.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=41.08</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-173#t=18.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-178#t=39.02</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_226</t>
+          <t>schubert-winterreise_14</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>schubert-winterreise_139</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'F#:min']]</t>
+          <t>['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'G:maj', 'A:min/C']]</t>
+          <t>['D#:min', 'A#:maj', 'D#:min', 'A#:maj', 'D#:min']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:16.759569', '0:00:31.190770')]</t>
+          <t>('0:00:10.560000', '0:00:23.760000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:20.860000', '0:00:26.980000')]</t>
+          <t>('0:00:01.260000', '0:00:08.220000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-226#t=16.759569']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-14#t=10.56</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=20.86']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-139#t=1.26</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_52</t>
+          <t>schubert-winterreise_84</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_181</t>
+          <t>isophonics_295</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['G', 'G:7', 'C'], ['G', 'D', 'G'], ['G:7', 'C', 'G']]</t>
+          <t>['D#:maj', 'A#:maj', 'D#:maj']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'D#:7', 'G#:maj'], ['D#:maj', 'A#:maj', 'D#:maj'], ['D#:7/C#', 'G#:maj/C', 'D#:maj/A#']]</t>
+          <t>['C/5', 'G', 'C/5']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:58.265237', '0:01:07.100430'), ('0:01:07.100430', '0:01:15.018435'), ('0:01:00.006734', '0:01:08.830317')]</t>
+          <t>('0:00:00.780000', '0:00:19.180000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:17.980000', '0:00:26.320000'), ('0:00:02.560000', '0:00:21.440000'), ('0:01:03.460000', '0:01:05.780000')]</t>
+          <t>('0:00:12.094553', '0:00:16.853782')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-52#t=58.265237', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-52#t=67.10043', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-52#t=60.006734']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-84#t=0.78</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-181#t=17.98', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-181#t=2.56', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-181#t=63.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-295#t=12.094553</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_96</t>
+          <t>isophonics_279</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_140</t>
+          <t>schubert-winterreise_83</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj', 'A:maj']]</t>
+          <t>['C:maj', 'F/5', 'C:maj']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G', 'D']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:11.384000', '0:00:18.837000')]</t>
+          <t>('0:00:10.619000', '0:00:16.742000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:49.402280', '0:00:59.224321')]</t>
+          <t>('0:02:12.300000', '0:02:16.560000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-96#t=11.384']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-279#t=10.619</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-140#t=49.40228']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-83#t=132.3</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
